--- a/Code/Results/Cases/Case_1_175/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_175/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.466516119797646</v>
+        <v>6.250754832778648</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.149364155459041</v>
+        <v>10.05852583752363</v>
       </c>
       <c r="E2">
-        <v>11.35248049656541</v>
+        <v>14.02413460890021</v>
       </c>
       <c r="F2">
-        <v>20.50435877708079</v>
+        <v>28.52769008755491</v>
       </c>
       <c r="G2">
-        <v>21.37381894700315</v>
+        <v>27.24374681691054</v>
       </c>
       <c r="H2">
-        <v>8.292810402095977</v>
+        <v>13.89131497501569</v>
       </c>
       <c r="I2">
-        <v>11.79352471795738</v>
+        <v>18.73486035391902</v>
       </c>
       <c r="J2">
-        <v>6.287791377464541</v>
+        <v>9.751380133820122</v>
       </c>
       <c r="K2">
-        <v>15.69362086874185</v>
+        <v>10.59955265147022</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.00322245597648</v>
+        <v>17.58772226885498</v>
       </c>
       <c r="O2">
-        <v>13.55961790464738</v>
+        <v>20.94614093855296</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.023551134288963</v>
+        <v>6.120268030835176</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.787386205034674</v>
+        <v>10.00399083386647</v>
       </c>
       <c r="E3">
-        <v>10.86839851007049</v>
+        <v>13.96063028545999</v>
       </c>
       <c r="F3">
-        <v>19.99913085492769</v>
+        <v>28.53722952529662</v>
       </c>
       <c r="G3">
-        <v>20.74065256595273</v>
+        <v>27.24109689909521</v>
       </c>
       <c r="H3">
-        <v>8.301841349620318</v>
+        <v>13.93004950772598</v>
       </c>
       <c r="I3">
-        <v>12.05781520216679</v>
+        <v>18.82866093917338</v>
       </c>
       <c r="J3">
-        <v>6.171474163007677</v>
+        <v>9.755847742273918</v>
       </c>
       <c r="K3">
-        <v>14.76692970767496</v>
+        <v>10.23137723200765</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.10975727800573</v>
+        <v>17.62858252090579</v>
       </c>
       <c r="O3">
-        <v>13.43621210052932</v>
+        <v>20.99749849808124</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.736091784452427</v>
+        <v>6.039598074390607</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.559806616362469</v>
+        <v>9.972168438534663</v>
       </c>
       <c r="E4">
-        <v>10.56616434171174</v>
+        <v>13.92443938601826</v>
       </c>
       <c r="F4">
-        <v>19.69981986109905</v>
+        <v>28.55012842108919</v>
       </c>
       <c r="G4">
-        <v>20.36610466277849</v>
+        <v>27.2483599233453</v>
       </c>
       <c r="H4">
-        <v>8.312814519265006</v>
+        <v>13.95604615145696</v>
       </c>
       <c r="I4">
-        <v>12.2249398742211</v>
+        <v>18.8892067014032</v>
       </c>
       <c r="J4">
-        <v>6.102317344354199</v>
+        <v>9.760132222165671</v>
       </c>
       <c r="K4">
-        <v>14.16677192561888</v>
+        <v>9.999126571361145</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.17831567471172</v>
+        <v>17.65527446811231</v>
       </c>
       <c r="O4">
-        <v>13.37167915413437</v>
+        <v>21.03357557029779</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.615081159382186</v>
+        <v>6.00663177690965</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.465861972158527</v>
+        <v>9.95962911411671</v>
       </c>
       <c r="E5">
-        <v>10.44192896425594</v>
+        <v>13.91040755653958</v>
       </c>
       <c r="F5">
-        <v>19.58071040443284</v>
+        <v>28.55715537053434</v>
       </c>
       <c r="G5">
-        <v>20.21722057981578</v>
+        <v>27.25355315505774</v>
       </c>
       <c r="H5">
-        <v>8.318607060932496</v>
+        <v>13.96719641089071</v>
       </c>
       <c r="I5">
-        <v>12.29428289695818</v>
+        <v>18.91462390546648</v>
       </c>
       <c r="J5">
-        <v>6.074727032364019</v>
+        <v>9.762266282348532</v>
       </c>
       <c r="K5">
-        <v>13.91442612172694</v>
+        <v>9.903062365789204</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.20703755597556</v>
+        <v>17.66655568018015</v>
       </c>
       <c r="O5">
-        <v>13.34814496943262</v>
+        <v>21.04941756555679</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.594754626840388</v>
+        <v>6.001153519477851</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.450194092270358</v>
+        <v>9.957573149571841</v>
       </c>
       <c r="E6">
-        <v>10.42124086999883</v>
+        <v>13.90812117177757</v>
       </c>
       <c r="F6">
-        <v>19.56110862878801</v>
+        <v>28.55842910355377</v>
       </c>
       <c r="G6">
-        <v>20.19272962700423</v>
+        <v>27.25455028963487</v>
       </c>
       <c r="H6">
-        <v>8.319647400496198</v>
+        <v>13.96908150350958</v>
       </c>
       <c r="I6">
-        <v>12.30587258968648</v>
+        <v>18.91888942807226</v>
       </c>
       <c r="J6">
-        <v>6.070182056706424</v>
+        <v>9.762644094448277</v>
       </c>
       <c r="K6">
-        <v>13.8720567821785</v>
+        <v>9.887029438867307</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.21185394469776</v>
+        <v>17.66845334253508</v>
       </c>
       <c r="O6">
-        <v>13.3444020761542</v>
+        <v>21.05211692093618</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.734475420007542</v>
+        <v>6.039153792886577</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.558544330534085</v>
+        <v>9.971997580089969</v>
       </c>
       <c r="E7">
-        <v>10.56449294023124</v>
+        <v>13.9242472327154</v>
       </c>
       <c r="F7">
-        <v>19.698201765784</v>
+        <v>28.55021602103448</v>
       </c>
       <c r="G7">
-        <v>20.36408136804352</v>
+        <v>27.2484209218073</v>
       </c>
       <c r="H7">
-        <v>8.31288734940085</v>
+        <v>13.95619427510546</v>
       </c>
       <c r="I7">
-        <v>12.22587001972537</v>
+        <v>18.88954647026602</v>
       </c>
       <c r="J7">
-        <v>6.101942827011007</v>
+        <v>9.760159430850839</v>
       </c>
       <c r="K7">
-        <v>14.16340009431389</v>
+        <v>9.997836576580754</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.17869986349458</v>
+        <v>17.65542497353567</v>
       </c>
       <c r="O7">
-        <v>13.37135066245006</v>
+        <v>21.03378460698016</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.317005515472838</v>
+        <v>6.205904263585651</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.025734342687015</v>
+        <v>10.0393836646075</v>
       </c>
       <c r="E8">
-        <v>11.18671293473238</v>
+        <v>14.00166439989319</v>
       </c>
       <c r="F8">
-        <v>20.32796823938443</v>
+        <v>28.52951799780494</v>
       </c>
       <c r="G8">
-        <v>21.15265769596375</v>
+        <v>27.24098734877045</v>
       </c>
       <c r="H8">
-        <v>8.294771130413793</v>
+        <v>13.90421112884769</v>
       </c>
       <c r="I8">
-        <v>11.88365728509816</v>
+        <v>18.76659138522817</v>
       </c>
       <c r="J8">
-        <v>6.24722960574967</v>
+        <v>9.752600999119117</v>
       </c>
       <c r="K8">
-        <v>15.38059602951067</v>
+        <v>10.47396809992493</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.03929823283901</v>
+        <v>17.60147853410781</v>
       </c>
       <c r="O8">
-        <v>13.51469960846101</v>
+        <v>20.96290481519858</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.335906506182008</v>
+        <v>6.526601702435879</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.894630222978444</v>
+        <v>10.18422725342834</v>
       </c>
       <c r="E9">
-        <v>12.3601113646935</v>
+        <v>14.17513812730987</v>
       </c>
       <c r="F9">
-        <v>21.64390199256602</v>
+        <v>28.54476778076327</v>
       </c>
       <c r="G9">
-        <v>22.80407088734648</v>
+        <v>27.29695386784425</v>
       </c>
       <c r="H9">
-        <v>8.304288325771896</v>
+        <v>13.81984315951828</v>
       </c>
       <c r="I9">
-        <v>11.25015205241683</v>
+        <v>18.54880364402228</v>
       </c>
       <c r="J9">
-        <v>6.549052499745693</v>
+        <v>9.749982484382071</v>
       </c>
       <c r="K9">
-        <v>17.518566171992</v>
+        <v>11.35321858162605</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.79125158753749</v>
+        <v>17.50837796979064</v>
       </c>
       <c r="O9">
-        <v>13.88740448178359</v>
+        <v>20.86004861193565</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.008824773817436</v>
+        <v>6.755923887157802</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.49863852298291</v>
+        <v>10.29769471841487</v>
       </c>
       <c r="E10">
-        <v>13.1857918737074</v>
+        <v>14.314977581435</v>
       </c>
       <c r="F10">
-        <v>22.65269526104418</v>
+        <v>28.58990818454216</v>
       </c>
       <c r="G10">
-        <v>24.07111273995413</v>
+        <v>27.3809616442963</v>
       </c>
       <c r="H10">
-        <v>8.341436572187343</v>
+        <v>13.76857979185798</v>
       </c>
       <c r="I10">
-        <v>10.80629455323606</v>
+        <v>18.402882032592</v>
       </c>
       <c r="J10">
-        <v>6.779724289923605</v>
+        <v>9.755457249314919</v>
       </c>
       <c r="K10">
-        <v>18.93647299346724</v>
+        <v>11.95975166662182</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.62500650013737</v>
+        <v>17.44766327041653</v>
       </c>
       <c r="O10">
-        <v>14.21987046475711</v>
+        <v>20.80662333608554</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.298527924816369</v>
+        <v>6.858405387042882</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.765082021609919</v>
+        <v>10.35068841038867</v>
       </c>
       <c r="E11">
-        <v>13.55225101887221</v>
+        <v>14.38109406395222</v>
       </c>
       <c r="F11">
-        <v>23.1192548511411</v>
+        <v>28.61776874563463</v>
       </c>
       <c r="G11">
-        <v>24.65718847149031</v>
+        <v>27.42842545591959</v>
       </c>
       <c r="H11">
-        <v>8.365457965505216</v>
+        <v>13.74758875446958</v>
       </c>
       <c r="I11">
-        <v>10.60875102154771</v>
+        <v>18.33952893934556</v>
       </c>
       <c r="J11">
-        <v>6.886315252850997</v>
+        <v>9.759543145123976</v>
       </c>
       <c r="K11">
-        <v>19.54834479301087</v>
+        <v>12.22602323619273</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.55299415704725</v>
+        <v>17.42170142285962</v>
       </c>
       <c r="O11">
-        <v>14.38430649645896</v>
+        <v>20.78714648148636</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.405875294182136</v>
+        <v>6.896911600252197</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.864725038183973</v>
+        <v>10.37093995602221</v>
       </c>
       <c r="E12">
-        <v>13.68962405771526</v>
+        <v>14.40647347748927</v>
       </c>
       <c r="F12">
-        <v>23.29691633396929</v>
+        <v>28.62936671271197</v>
       </c>
       <c r="G12">
-        <v>24.88036547796268</v>
+        <v>27.44771974175245</v>
       </c>
       <c r="H12">
-        <v>8.375624943392946</v>
+        <v>13.73997503108854</v>
       </c>
       <c r="I12">
-        <v>10.53454860856318</v>
+        <v>18.31597198826435</v>
       </c>
       <c r="J12">
-        <v>6.926894314289567</v>
+        <v>9.761318588285135</v>
       </c>
       <c r="K12">
-        <v>19.7752917240378</v>
+        <v>12.32539008672472</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.52625849709956</v>
+        <v>17.412107952898</v>
       </c>
       <c r="O12">
-        <v>14.448499725548</v>
+        <v>20.78046633869772</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.382860867490168</v>
+        <v>6.888632561109952</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.843321651385967</v>
+        <v>10.36657046641776</v>
       </c>
       <c r="E13">
-        <v>13.66010157302951</v>
+        <v>14.40099261498516</v>
       </c>
       <c r="F13">
-        <v>23.25861163567367</v>
+        <v>28.62682238501338</v>
       </c>
       <c r="G13">
-        <v>24.83224723840803</v>
+        <v>27.44350579714557</v>
       </c>
       <c r="H13">
-        <v>8.373386953723717</v>
+        <v>13.74159987438458</v>
       </c>
       <c r="I13">
-        <v>10.55050302278207</v>
+        <v>18.32102614873453</v>
       </c>
       <c r="J13">
-        <v>6.918145654661887</v>
+        <v>9.760926086176855</v>
       </c>
       <c r="K13">
-        <v>19.72662590720553</v>
+        <v>12.30405592287298</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.53199251374729</v>
+        <v>17.4141635157452</v>
       </c>
       <c r="O13">
-        <v>14.43458857304979</v>
+        <v>20.78187408509833</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.307406667547612</v>
+        <v>6.861579557908323</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.77330511394838</v>
+        <v>10.3523509110886</v>
       </c>
       <c r="E14">
-        <v>13.56358118897688</v>
+        <v>14.38317528018267</v>
       </c>
       <c r="F14">
-        <v>23.13385203643882</v>
+        <v>28.61870195481658</v>
       </c>
       <c r="G14">
-        <v>24.67552526590147</v>
+        <v>27.42998639763524</v>
       </c>
       <c r="H14">
-        <v>8.366272688367729</v>
+        <v>13.74695565119203</v>
       </c>
       <c r="I14">
-        <v>10.60263440828148</v>
+        <v>18.3375822175044</v>
       </c>
       <c r="J14">
-        <v>6.889649525280427</v>
+        <v>9.75968464579435</v>
       </c>
       <c r="K14">
-        <v>19.56711107835921</v>
+        <v>12.2342279666643</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.55078381208496</v>
+        <v>17.42090740169362</v>
       </c>
       <c r="O14">
-        <v>14.3895489958131</v>
+        <v>20.7865829605677</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.260881982801388</v>
+        <v>6.844968518631401</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.730253261601028</v>
+        <v>10.34366456281584</v>
       </c>
       <c r="E15">
-        <v>13.50427558963835</v>
+        <v>14.37230573108773</v>
       </c>
       <c r="F15">
-        <v>23.05755829567402</v>
+        <v>28.61386422089423</v>
       </c>
       <c r="G15">
-        <v>24.5796862341218</v>
+        <v>27.42187707322209</v>
       </c>
       <c r="H15">
-        <v>8.362055788217738</v>
+        <v>13.75027986895763</v>
       </c>
       <c r="I15">
-        <v>10.63464414680949</v>
+        <v>18.34777968651382</v>
       </c>
       <c r="J15">
-        <v>6.872222220798763</v>
+        <v>9.758953908212243</v>
       </c>
       <c r="K15">
-        <v>19.46878474743034</v>
+        <v>12.19126347615358</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.56236399654355</v>
+        <v>17.42506916577605</v>
       </c>
       <c r="O15">
-        <v>14.36221235537479</v>
+        <v>20.78955786694498</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.989561951683539</v>
+        <v>6.749186272777768</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.481053232549712</v>
+        <v>10.29425797084205</v>
       </c>
       <c r="E16">
-        <v>13.16165146335189</v>
+        <v>14.31070560614238</v>
       </c>
       <c r="F16">
-        <v>22.62234841926952</v>
+        <v>28.588234387325</v>
       </c>
       <c r="G16">
-        <v>24.03299302199617</v>
+        <v>27.37804513808162</v>
       </c>
       <c r="H16">
-        <v>8.34001401588262</v>
+        <v>13.76999848969889</v>
       </c>
       <c r="I16">
-        <v>10.81929028084419</v>
+        <v>18.40708306689511</v>
       </c>
       <c r="J16">
-        <v>6.77278966895794</v>
+        <v>9.755222229238864</v>
       </c>
       <c r="K16">
-        <v>18.89581952010347</v>
+        <v>11.94214927799567</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.62978657132707</v>
+        <v>17.44939323790573</v>
       </c>
       <c r="O16">
-        <v>14.20939216988471</v>
+        <v>20.80799343127824</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.818913895708292</v>
+        <v>6.689929052136143</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.326001366777058</v>
+        <v>10.26429139268996</v>
       </c>
       <c r="E17">
-        <v>12.94905620598976</v>
+        <v>14.27354479409894</v>
       </c>
       <c r="F17">
-        <v>22.35723632796206</v>
+        <v>28.57438397133256</v>
       </c>
       <c r="G17">
-        <v>23.69998369812424</v>
+        <v>27.35351852386504</v>
       </c>
       <c r="H17">
-        <v>8.328349484151108</v>
+        <v>13.78269189015252</v>
       </c>
       <c r="I17">
-        <v>10.93366624941198</v>
+        <v>18.44423783754045</v>
       </c>
       <c r="J17">
-        <v>6.712198641416045</v>
+        <v>9.753340763898089</v>
       </c>
       <c r="K17">
-        <v>18.53584020186534</v>
+        <v>11.78679746480177</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.67208329010164</v>
+        <v>17.46473935374056</v>
       </c>
       <c r="O17">
-        <v>14.11904279372253</v>
+        <v>20.8205402350123</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.719216620129812</v>
+        <v>6.655674890364847</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.236038826347041</v>
+        <v>10.24718585644695</v>
       </c>
       <c r="E18">
-        <v>12.82591981810709</v>
+        <v>14.25240753459406</v>
       </c>
       <c r="F18">
-        <v>22.2054776167022</v>
+        <v>28.56710754291485</v>
       </c>
       <c r="G18">
-        <v>23.50936577225352</v>
+        <v>27.3402826288383</v>
       </c>
       <c r="H18">
-        <v>8.322308005444794</v>
+        <v>13.79021199559552</v>
       </c>
       <c r="I18">
-        <v>10.99986514713982</v>
+        <v>18.46589333931441</v>
       </c>
       <c r="J18">
-        <v>6.677505551437528</v>
+        <v>9.752408842235216</v>
       </c>
       <c r="K18">
-        <v>18.32566906398218</v>
+        <v>11.69653952452035</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.69675041291713</v>
+        <v>17.47372208966382</v>
       </c>
       <c r="O18">
-        <v>14.06831698496484</v>
+        <v>20.82821106491548</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.685195432652328</v>
+        <v>6.644048821096139</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.205446869010865</v>
+        <v>10.24141704157062</v>
       </c>
       <c r="E19">
-        <v>12.78408349873356</v>
+        <v>14.24529198689387</v>
       </c>
       <c r="F19">
-        <v>22.15422323558173</v>
+        <v>28.56476252671593</v>
       </c>
       <c r="G19">
-        <v>23.44498876567923</v>
+        <v>27.33595105012228</v>
       </c>
       <c r="H19">
-        <v>8.320375713578215</v>
+        <v>13.79279581401494</v>
       </c>
       <c r="I19">
-        <v>11.02235061565538</v>
+        <v>18.47327453596694</v>
       </c>
       <c r="J19">
-        <v>6.665786803526587</v>
+        <v>9.752119149494112</v>
       </c>
       <c r="K19">
-        <v>18.25397259750404</v>
+        <v>11.66582705654214</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.70516011906609</v>
+        <v>17.47679031216529</v>
       </c>
       <c r="O19">
-        <v>14.05135428000462</v>
+        <v>20.8308862495822</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.837239564560836</v>
+        <v>6.696255055354015</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.342588160209422</v>
+        <v>10.26746798574967</v>
       </c>
       <c r="E20">
-        <v>12.97177669957642</v>
+        <v>14.27747625679189</v>
       </c>
       <c r="F20">
-        <v>22.38538361697867</v>
+        <v>28.57578700073116</v>
       </c>
       <c r="G20">
-        <v>23.7353390211786</v>
+        <v>27.35603932111771</v>
       </c>
       <c r="H20">
-        <v>8.329521756622784</v>
+        <v>13.78131796816164</v>
       </c>
       <c r="I20">
-        <v>10.92144818126218</v>
+        <v>18.44025315950375</v>
       </c>
       <c r="J20">
-        <v>6.718632554721597</v>
+        <v>9.753525507415551</v>
       </c>
       <c r="K20">
-        <v>18.57448353319744</v>
+        <v>11.80342905242486</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.66754553094831</v>
+        <v>17.46308958697323</v>
       </c>
       <c r="O20">
-        <v>14.12853201025709</v>
+        <v>20.81915758418374</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.329633324812416</v>
+        <v>6.869534140368243</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.793905076541682</v>
+        <v>10.35652265883794</v>
       </c>
       <c r="E21">
-        <v>13.59197004921297</v>
+        <v>14.38839950826515</v>
       </c>
       <c r="F21">
-        <v>23.17047106997451</v>
+        <v>28.62105873638577</v>
       </c>
       <c r="G21">
-        <v>24.72152568540054</v>
+        <v>27.43392161034765</v>
       </c>
       <c r="H21">
-        <v>8.368332897319638</v>
+        <v>13.74537343275772</v>
       </c>
       <c r="I21">
-        <v>10.58730599868726</v>
+        <v>18.33270754858053</v>
       </c>
       <c r="J21">
-        <v>6.898013858003934</v>
+        <v>9.76004310389086</v>
       </c>
       <c r="K21">
-        <v>19.61409339808903</v>
+        <v>12.25477844532858</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.54524974268944</v>
+        <v>17.41892011233341</v>
       </c>
       <c r="O21">
-        <v>14.40272577771274</v>
+        <v>20.78518097014578</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.637706299426073</v>
+        <v>6.981010401109533</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.08154305245052</v>
+        <v>10.41579075761339</v>
       </c>
       <c r="E22">
-        <v>13.98913278415236</v>
+        <v>14.46288237927241</v>
       </c>
       <c r="F22">
-        <v>23.68927048028278</v>
+        <v>28.6567502713252</v>
       </c>
       <c r="G22">
-        <v>25.37324404665344</v>
+        <v>27.49251499908464</v>
       </c>
       <c r="H22">
-        <v>8.3999596810841</v>
+        <v>13.72383506611147</v>
       </c>
       <c r="I22">
-        <v>10.37242700061934</v>
+        <v>18.26494614558955</v>
       </c>
       <c r="J22">
-        <v>7.016495983824686</v>
+        <v>9.765632215350108</v>
       </c>
       <c r="K22">
-        <v>20.26582903872736</v>
+        <v>12.54119622473598</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.46844177224023</v>
+        <v>17.39143812465204</v>
       </c>
       <c r="O22">
-        <v>14.59315626960727</v>
+        <v>20.76702854300119</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.474537051803521</v>
+        <v>6.921687097249375</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.928711081433907</v>
+        <v>10.38406543873731</v>
       </c>
       <c r="E23">
-        <v>13.77792973641443</v>
+        <v>14.42295344094992</v>
       </c>
       <c r="F23">
-        <v>23.41189095612482</v>
+        <v>28.63714468709453</v>
       </c>
       <c r="G23">
-        <v>25.02479673156294</v>
+        <v>27.46054224539624</v>
       </c>
       <c r="H23">
-        <v>8.38249173720209</v>
+        <v>13.73515168597631</v>
       </c>
       <c r="I23">
-        <v>10.48680022141879</v>
+        <v>18.30088116875877</v>
       </c>
       <c r="J23">
-        <v>6.953152929613374</v>
+        <v>9.762527988609655</v>
       </c>
       <c r="K23">
-        <v>19.92051558107372</v>
+        <v>12.38913659509639</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.50914510404275</v>
+        <v>17.40597922953008</v>
       </c>
       <c r="O23">
-        <v>14.49048468054797</v>
+        <v>20.77634561196029</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.828959480600046</v>
+        <v>6.693395647052417</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.335091824204499</v>
+        <v>10.2660314649369</v>
       </c>
       <c r="E24">
-        <v>12.96150760040075</v>
+        <v>14.27569813417036</v>
       </c>
       <c r="F24">
-        <v>22.3726561699401</v>
+        <v>28.57515055275758</v>
       </c>
       <c r="G24">
-        <v>23.71935227154495</v>
+        <v>27.35489697427466</v>
       </c>
       <c r="H24">
-        <v>8.328989705627627</v>
+        <v>13.78193842522934</v>
       </c>
       <c r="I24">
-        <v>10.92697058928293</v>
+        <v>18.44205371425387</v>
       </c>
       <c r="J24">
-        <v>6.715723340015717</v>
+        <v>9.753441518303301</v>
       </c>
       <c r="K24">
-        <v>18.55702289539007</v>
+        <v>11.79591284635015</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.66959596220213</v>
+        <v>17.4638349479366</v>
       </c>
       <c r="O24">
-        <v>14.12423814612021</v>
+        <v>20.81978125561513</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.073543935903967</v>
+        <v>6.440780468848311</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.665264110096043</v>
+        <v>10.14375307532752</v>
       </c>
       <c r="E25">
-        <v>12.04857952045785</v>
+        <v>14.12597108586449</v>
       </c>
       <c r="F25">
-        <v>21.28000928028312</v>
+        <v>28.53467098253527</v>
       </c>
       <c r="G25">
-        <v>22.34715804079472</v>
+        <v>27.27426532178796</v>
       </c>
       <c r="H25">
-        <v>8.29661251962945</v>
+        <v>13.84078473021948</v>
       </c>
       <c r="I25">
-        <v>11.41764299172922</v>
+        <v>18.60523757816467</v>
       </c>
       <c r="J25">
-        <v>6.465734509419314</v>
+        <v>9.749388117305715</v>
       </c>
       <c r="K25">
-        <v>16.96700401107721</v>
+        <v>11.1218796689802</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.85559049931334</v>
+        <v>17.53221087419121</v>
       </c>
       <c r="O25">
-        <v>13.7764548212626</v>
+        <v>20.88399258001193</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_175/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_175/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.250754832778648</v>
+        <v>7.466516119797589</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.05852583752363</v>
+        <v>8.149364155459098</v>
       </c>
       <c r="E2">
-        <v>14.02413460890021</v>
+        <v>11.35248049656548</v>
       </c>
       <c r="F2">
-        <v>28.52769008755491</v>
+        <v>20.50435877708082</v>
       </c>
       <c r="G2">
-        <v>27.24374681691054</v>
+        <v>21.37381894700317</v>
       </c>
       <c r="H2">
-        <v>13.89131497501569</v>
+        <v>8.292810402095968</v>
       </c>
       <c r="I2">
-        <v>18.73486035391902</v>
+        <v>11.79352471795738</v>
       </c>
       <c r="J2">
-        <v>9.751380133820122</v>
+        <v>6.287791377464607</v>
       </c>
       <c r="K2">
-        <v>10.59955265147022</v>
+        <v>15.69362086874181</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.58772226885498</v>
+        <v>12.00322245597645</v>
       </c>
       <c r="O2">
-        <v>20.94614093855296</v>
+        <v>13.55961790464737</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.120268030835176</v>
+        <v>7.023551134289016</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.00399083386647</v>
+        <v>7.787386205034751</v>
       </c>
       <c r="E3">
-        <v>13.96063028545999</v>
+        <v>10.86839851007049</v>
       </c>
       <c r="F3">
-        <v>28.53722952529662</v>
+        <v>19.99913085492765</v>
       </c>
       <c r="G3">
-        <v>27.24109689909521</v>
+        <v>20.74065256595249</v>
       </c>
       <c r="H3">
-        <v>13.93004950772598</v>
+        <v>8.301841349620316</v>
       </c>
       <c r="I3">
-        <v>18.82866093917338</v>
+        <v>12.05781520216672</v>
       </c>
       <c r="J3">
-        <v>9.755847742273918</v>
+        <v>6.171474163007613</v>
       </c>
       <c r="K3">
-        <v>10.23137723200765</v>
+        <v>14.76692970767506</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.62858252090579</v>
+        <v>12.10975727800574</v>
       </c>
       <c r="O3">
-        <v>20.99749849808124</v>
+        <v>13.43621210052921</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.039598074390607</v>
+        <v>6.736091784452435</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.972168438534663</v>
+        <v>7.559806616362595</v>
       </c>
       <c r="E4">
-        <v>13.92443938601826</v>
+        <v>10.56616434171185</v>
       </c>
       <c r="F4">
-        <v>28.55012842108919</v>
+        <v>19.69981986109908</v>
       </c>
       <c r="G4">
-        <v>27.2483599233453</v>
+        <v>20.36610466277838</v>
       </c>
       <c r="H4">
-        <v>13.95604615145696</v>
+        <v>8.312814519265018</v>
       </c>
       <c r="I4">
-        <v>18.8892067014032</v>
+        <v>12.2249398742211</v>
       </c>
       <c r="J4">
-        <v>9.760132222165671</v>
+        <v>6.10231734435423</v>
       </c>
       <c r="K4">
-        <v>9.999126571361145</v>
+        <v>14.16677192561892</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.65527446811231</v>
+        <v>12.17831567471172</v>
       </c>
       <c r="O4">
-        <v>21.03357557029779</v>
+        <v>13.37167915413434</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.00663177690965</v>
+        <v>6.615081159382208</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.95962911411671</v>
+        <v>7.465861972158596</v>
       </c>
       <c r="E5">
-        <v>13.91040755653958</v>
+        <v>10.44192896425598</v>
       </c>
       <c r="F5">
-        <v>28.55715537053434</v>
+        <v>19.58071040443278</v>
       </c>
       <c r="G5">
-        <v>27.25355315505774</v>
+        <v>20.2172205798157</v>
       </c>
       <c r="H5">
-        <v>13.96719641089071</v>
+        <v>8.318607060932433</v>
       </c>
       <c r="I5">
-        <v>18.91462390546648</v>
+        <v>12.29428289695811</v>
       </c>
       <c r="J5">
-        <v>9.762266282348532</v>
+        <v>6.074727032364049</v>
       </c>
       <c r="K5">
-        <v>9.903062365789204</v>
+        <v>13.914426121727</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.66655568018015</v>
+        <v>12.20703755597557</v>
       </c>
       <c r="O5">
-        <v>21.04941756555679</v>
+        <v>13.3481449694325</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.001153519477851</v>
+        <v>6.594754626840449</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.957573149571841</v>
+        <v>7.450194092270364</v>
       </c>
       <c r="E6">
-        <v>13.90812117177757</v>
+        <v>10.42124086999879</v>
       </c>
       <c r="F6">
-        <v>28.55842910355377</v>
+        <v>19.56110862878772</v>
       </c>
       <c r="G6">
-        <v>27.25455028963487</v>
+        <v>20.19272962700401</v>
       </c>
       <c r="H6">
-        <v>13.96908150350958</v>
+        <v>8.319647400496086</v>
       </c>
       <c r="I6">
-        <v>18.91888942807226</v>
+        <v>12.30587258968631</v>
       </c>
       <c r="J6">
-        <v>9.762644094448277</v>
+        <v>6.070182056706392</v>
       </c>
       <c r="K6">
-        <v>9.887029438867307</v>
+        <v>13.87205678217857</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.66845334253508</v>
+        <v>12.2118539446977</v>
       </c>
       <c r="O6">
-        <v>21.05211692093618</v>
+        <v>13.344402076154</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.039153792886577</v>
+        <v>6.734475420007542</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.971997580089969</v>
+        <v>7.558544330534159</v>
       </c>
       <c r="E7">
-        <v>13.9242472327154</v>
+        <v>10.56449294023133</v>
       </c>
       <c r="F7">
-        <v>28.55021602103448</v>
+        <v>19.69820176578392</v>
       </c>
       <c r="G7">
-        <v>27.2484209218073</v>
+        <v>20.36408136804332</v>
       </c>
       <c r="H7">
-        <v>13.95619427510546</v>
+        <v>8.312887349400846</v>
       </c>
       <c r="I7">
-        <v>18.88954647026602</v>
+        <v>12.22587001972527</v>
       </c>
       <c r="J7">
-        <v>9.760159430850839</v>
+        <v>6.101942827011076</v>
       </c>
       <c r="K7">
-        <v>9.997836576580754</v>
+        <v>14.16340009431394</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.65542497353567</v>
+        <v>12.17869986349454</v>
       </c>
       <c r="O7">
-        <v>21.03378460698016</v>
+        <v>13.37135066244994</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.205904263585651</v>
+        <v>7.317005515472838</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.0393836646075</v>
+        <v>8.02573434268705</v>
       </c>
       <c r="E8">
-        <v>14.00166439989319</v>
+        <v>11.18671293473236</v>
       </c>
       <c r="F8">
-        <v>28.52951799780494</v>
+        <v>20.32796823938438</v>
       </c>
       <c r="G8">
-        <v>27.24098734877045</v>
+        <v>21.15265769596361</v>
       </c>
       <c r="H8">
-        <v>13.90421112884769</v>
+        <v>8.294771130413679</v>
       </c>
       <c r="I8">
-        <v>18.76659138522817</v>
+        <v>11.88365728509816</v>
       </c>
       <c r="J8">
-        <v>9.752600999119117</v>
+        <v>6.24722960574963</v>
       </c>
       <c r="K8">
-        <v>10.47396809992493</v>
+        <v>15.38059602951075</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.60147853410781</v>
+        <v>12.03929823283904</v>
       </c>
       <c r="O8">
-        <v>20.96290481519858</v>
+        <v>13.51469960846092</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.526601702435879</v>
+        <v>8.335906506182033</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.18422725342834</v>
+        <v>8.894630222978506</v>
       </c>
       <c r="E9">
-        <v>14.17513812730987</v>
+        <v>12.36011136469352</v>
       </c>
       <c r="F9">
-        <v>28.54476778076327</v>
+        <v>21.64390199256597</v>
       </c>
       <c r="G9">
-        <v>27.29695386784425</v>
+        <v>22.80407088734629</v>
       </c>
       <c r="H9">
-        <v>13.81984315951828</v>
+        <v>8.304288325771887</v>
       </c>
       <c r="I9">
-        <v>18.54880364402228</v>
+        <v>11.25015205241673</v>
       </c>
       <c r="J9">
-        <v>9.749982484382071</v>
+        <v>6.549052499745653</v>
       </c>
       <c r="K9">
-        <v>11.35321858162605</v>
+        <v>17.5185661719921</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.50837796979064</v>
+        <v>11.79125158753746</v>
       </c>
       <c r="O9">
-        <v>20.86004861193565</v>
+        <v>13.88740448178347</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.755923887157802</v>
+        <v>9.00882477381746</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.29769471841487</v>
+        <v>9.498638522982906</v>
       </c>
       <c r="E10">
-        <v>14.314977581435</v>
+        <v>13.18579187370736</v>
       </c>
       <c r="F10">
-        <v>28.58990818454216</v>
+        <v>22.65269526104414</v>
       </c>
       <c r="G10">
-        <v>27.3809616442963</v>
+        <v>24.07111273995405</v>
       </c>
       <c r="H10">
-        <v>13.76857979185798</v>
+        <v>8.341436572187353</v>
       </c>
       <c r="I10">
-        <v>18.402882032592</v>
+        <v>10.80629455323599</v>
       </c>
       <c r="J10">
-        <v>9.755457249314919</v>
+        <v>6.77972428992358</v>
       </c>
       <c r="K10">
-        <v>11.95975166662182</v>
+        <v>18.93647299346724</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.44766327041653</v>
+        <v>11.62500650013737</v>
       </c>
       <c r="O10">
-        <v>20.80662333608554</v>
+        <v>14.21987046475708</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.858405387042882</v>
+        <v>9.29852792481644</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.35068841038867</v>
+        <v>9.765082021609938</v>
       </c>
       <c r="E11">
-        <v>14.38109406395222</v>
+        <v>13.55225101887222</v>
       </c>
       <c r="F11">
-        <v>28.61776874563463</v>
+        <v>23.11925485114108</v>
       </c>
       <c r="G11">
-        <v>27.42842545591959</v>
+        <v>24.65718847149036</v>
       </c>
       <c r="H11">
-        <v>13.74758875446958</v>
+        <v>8.365457965505117</v>
       </c>
       <c r="I11">
-        <v>18.33952893934556</v>
+        <v>10.60875102154771</v>
       </c>
       <c r="J11">
-        <v>9.759543145123976</v>
+        <v>6.886315252851026</v>
       </c>
       <c r="K11">
-        <v>12.22602323619273</v>
+        <v>19.54834479301091</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.42170142285962</v>
+        <v>11.55299415704729</v>
       </c>
       <c r="O11">
-        <v>20.78714648148636</v>
+        <v>14.38430649645892</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.896911600252197</v>
+        <v>9.405875294182112</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.37093995602221</v>
+        <v>9.864725038183973</v>
       </c>
       <c r="E12">
-        <v>14.40647347748927</v>
+        <v>13.68962405771524</v>
       </c>
       <c r="F12">
-        <v>28.62936671271197</v>
+        <v>23.29691633396925</v>
       </c>
       <c r="G12">
-        <v>27.44771974175245</v>
+        <v>24.88036547796266</v>
       </c>
       <c r="H12">
-        <v>13.73997503108854</v>
+        <v>8.3756249433929</v>
       </c>
       <c r="I12">
-        <v>18.31597198826435</v>
+        <v>10.53454860856322</v>
       </c>
       <c r="J12">
-        <v>9.761318588285135</v>
+        <v>6.926894314289557</v>
       </c>
       <c r="K12">
-        <v>12.32539008672472</v>
+        <v>19.77529172403784</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.412107952898</v>
+        <v>11.52625849709956</v>
       </c>
       <c r="O12">
-        <v>20.78046633869772</v>
+        <v>14.44849972554793</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.888632561109952</v>
+        <v>9.382860867490146</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.36657046641776</v>
+        <v>9.84332165138594</v>
       </c>
       <c r="E13">
-        <v>14.40099261498516</v>
+        <v>13.6601015730295</v>
       </c>
       <c r="F13">
-        <v>28.62682238501338</v>
+        <v>23.25861163567359</v>
       </c>
       <c r="G13">
-        <v>27.44350579714557</v>
+        <v>24.83224723840807</v>
       </c>
       <c r="H13">
-        <v>13.74159987438458</v>
+        <v>8.373386953723632</v>
       </c>
       <c r="I13">
-        <v>18.32102614873453</v>
+        <v>10.55050302278197</v>
       </c>
       <c r="J13">
-        <v>9.760926086176855</v>
+        <v>6.918145654661894</v>
       </c>
       <c r="K13">
-        <v>12.30405592287298</v>
+        <v>19.72662590720557</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.4141635157452</v>
+        <v>11.53199251374723</v>
       </c>
       <c r="O13">
-        <v>20.78187408509833</v>
+        <v>14.43458857304972</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.861579557908323</v>
+        <v>9.307406667547612</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.3523509110886</v>
+        <v>9.77330511394843</v>
       </c>
       <c r="E14">
-        <v>14.38317528018267</v>
+        <v>13.56358118897691</v>
       </c>
       <c r="F14">
-        <v>28.61870195481658</v>
+        <v>23.13385203643886</v>
       </c>
       <c r="G14">
-        <v>27.42998639763524</v>
+        <v>24.67552526590152</v>
       </c>
       <c r="H14">
-        <v>13.74695565119203</v>
+        <v>8.366272688367729</v>
       </c>
       <c r="I14">
-        <v>18.3375822175044</v>
+        <v>10.60263440828151</v>
       </c>
       <c r="J14">
-        <v>9.75968464579435</v>
+        <v>6.889649525280479</v>
       </c>
       <c r="K14">
-        <v>12.2342279666643</v>
+        <v>19.56711107835923</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.42090740169362</v>
+        <v>11.55078381208499</v>
       </c>
       <c r="O14">
-        <v>20.7865829605677</v>
+        <v>14.38954899581311</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.844968518631401</v>
+        <v>9.26088198280144</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.34366456281584</v>
+        <v>9.73025326160101</v>
       </c>
       <c r="E15">
-        <v>14.37230573108773</v>
+        <v>13.50427558963832</v>
       </c>
       <c r="F15">
-        <v>28.61386422089423</v>
+        <v>23.05755829567385</v>
       </c>
       <c r="G15">
-        <v>27.42187707322209</v>
+        <v>24.57968623412163</v>
       </c>
       <c r="H15">
-        <v>13.75027986895763</v>
+        <v>8.362055788217658</v>
       </c>
       <c r="I15">
-        <v>18.34777968651382</v>
+        <v>10.63464414680939</v>
       </c>
       <c r="J15">
-        <v>9.758953908212243</v>
+        <v>6.87222222079872</v>
       </c>
       <c r="K15">
-        <v>12.19126347615358</v>
+        <v>19.46878474743045</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.42506916577605</v>
+        <v>11.56236399654351</v>
       </c>
       <c r="O15">
-        <v>20.78955786694498</v>
+        <v>14.36221235537466</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.749186272777768</v>
+        <v>8.989561951683553</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.29425797084205</v>
+        <v>9.481053232549714</v>
       </c>
       <c r="E16">
-        <v>14.31070560614238</v>
+        <v>13.16165146335191</v>
       </c>
       <c r="F16">
-        <v>28.588234387325</v>
+        <v>22.62234841926936</v>
       </c>
       <c r="G16">
-        <v>27.37804513808162</v>
+        <v>24.03299302199598</v>
       </c>
       <c r="H16">
-        <v>13.76999848969889</v>
+        <v>8.340014015882486</v>
       </c>
       <c r="I16">
-        <v>18.40708306689511</v>
+        <v>10.81929028084415</v>
       </c>
       <c r="J16">
-        <v>9.755222229238864</v>
+        <v>6.772789668957974</v>
       </c>
       <c r="K16">
-        <v>11.94214927799567</v>
+        <v>18.89581952010356</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.44939323790573</v>
+        <v>11.62978657132704</v>
       </c>
       <c r="O16">
-        <v>20.80799343127824</v>
+        <v>14.20939216988457</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.689929052136143</v>
+        <v>8.818913895708317</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.26429139268996</v>
+        <v>9.326001366777087</v>
       </c>
       <c r="E17">
-        <v>14.27354479409894</v>
+        <v>12.94905620598977</v>
       </c>
       <c r="F17">
-        <v>28.57438397133256</v>
+        <v>22.3572363279621</v>
       </c>
       <c r="G17">
-        <v>27.35351852386504</v>
+        <v>23.69998369812422</v>
       </c>
       <c r="H17">
-        <v>13.78269189015252</v>
+        <v>8.328349484151152</v>
       </c>
       <c r="I17">
-        <v>18.44423783754045</v>
+        <v>10.93366624941198</v>
       </c>
       <c r="J17">
-        <v>9.753340763898089</v>
+        <v>6.712198641416027</v>
       </c>
       <c r="K17">
-        <v>11.78679746480177</v>
+        <v>18.53584020186535</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.46473935374056</v>
+        <v>11.67208329010167</v>
       </c>
       <c r="O17">
-        <v>20.8205402350123</v>
+        <v>14.11904279372257</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.655674890364847</v>
+        <v>8.719216620129735</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.24718585644695</v>
+        <v>9.236038826346975</v>
       </c>
       <c r="E18">
-        <v>14.25240753459406</v>
+        <v>12.82591981810708</v>
       </c>
       <c r="F18">
-        <v>28.56710754291485</v>
+        <v>22.20547761670197</v>
       </c>
       <c r="G18">
-        <v>27.3402826288383</v>
+        <v>23.50936577225335</v>
       </c>
       <c r="H18">
-        <v>13.79021199559552</v>
+        <v>8.322308005444699</v>
       </c>
       <c r="I18">
-        <v>18.46589333931441</v>
+        <v>10.99986514713969</v>
       </c>
       <c r="J18">
-        <v>9.752408842235216</v>
+        <v>6.677505551437547</v>
       </c>
       <c r="K18">
-        <v>11.69653952452035</v>
+        <v>18.32566906398224</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.47372208966382</v>
+        <v>11.69675041291697</v>
       </c>
       <c r="O18">
-        <v>20.82821106491548</v>
+        <v>14.06831698496469</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.644048821096139</v>
+        <v>8.685195432652344</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.24141704157062</v>
+        <v>9.205446869010874</v>
       </c>
       <c r="E19">
-        <v>14.24529198689387</v>
+        <v>12.78408349873355</v>
       </c>
       <c r="F19">
-        <v>28.56476252671593</v>
+        <v>22.15422323558174</v>
       </c>
       <c r="G19">
-        <v>27.33595105012228</v>
+        <v>23.4449887656792</v>
       </c>
       <c r="H19">
-        <v>13.79279581401494</v>
+        <v>8.320375713578198</v>
       </c>
       <c r="I19">
-        <v>18.47327453596694</v>
+        <v>11.02235061565538</v>
       </c>
       <c r="J19">
-        <v>9.752119149494112</v>
+        <v>6.665786803526536</v>
       </c>
       <c r="K19">
-        <v>11.66582705654214</v>
+        <v>18.25397259750406</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.47679031216529</v>
+        <v>11.70516011906609</v>
       </c>
       <c r="O19">
-        <v>20.8308862495822</v>
+        <v>14.05135428000459</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.696255055354015</v>
+        <v>8.837239564560845</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.26746798574967</v>
+        <v>9.342588160209431</v>
       </c>
       <c r="E20">
-        <v>14.27747625679189</v>
+        <v>12.97177669957646</v>
       </c>
       <c r="F20">
-        <v>28.57578700073116</v>
+        <v>22.38538361697868</v>
       </c>
       <c r="G20">
-        <v>27.35603932111771</v>
+        <v>23.73533902117855</v>
       </c>
       <c r="H20">
-        <v>13.78131796816164</v>
+        <v>8.329521756622778</v>
       </c>
       <c r="I20">
-        <v>18.44025315950375</v>
+        <v>10.92144818126225</v>
       </c>
       <c r="J20">
-        <v>9.753525507415551</v>
+        <v>6.718632554721624</v>
       </c>
       <c r="K20">
-        <v>11.80342905242486</v>
+        <v>18.57448353319744</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.46308958697323</v>
+        <v>11.66754553094834</v>
       </c>
       <c r="O20">
-        <v>20.81915758418374</v>
+        <v>14.12853201025711</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.869534140368243</v>
+        <v>9.329633324812473</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.35652265883794</v>
+        <v>9.793905076541693</v>
       </c>
       <c r="E21">
-        <v>14.38839950826515</v>
+        <v>13.59197004921297</v>
       </c>
       <c r="F21">
-        <v>28.62105873638577</v>
+        <v>23.1704710699745</v>
       </c>
       <c r="G21">
-        <v>27.43392161034765</v>
+        <v>24.72152568540052</v>
       </c>
       <c r="H21">
-        <v>13.74537343275772</v>
+        <v>8.368332897319632</v>
       </c>
       <c r="I21">
-        <v>18.33270754858053</v>
+        <v>10.58730599868729</v>
       </c>
       <c r="J21">
-        <v>9.76004310389086</v>
+        <v>6.898013858003886</v>
       </c>
       <c r="K21">
-        <v>12.25477844532858</v>
+        <v>19.61409339808906</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.41892011233341</v>
+        <v>11.5452497426895</v>
       </c>
       <c r="O21">
-        <v>20.78518097014578</v>
+        <v>14.40272577771271</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.981010401109533</v>
+        <v>9.637706299426153</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.41579075761339</v>
+        <v>10.08154305245054</v>
       </c>
       <c r="E22">
-        <v>14.46288237927241</v>
+        <v>13.98913278415237</v>
       </c>
       <c r="F22">
-        <v>28.6567502713252</v>
+        <v>23.68927048028281</v>
       </c>
       <c r="G22">
-        <v>27.49251499908464</v>
+        <v>25.37324404665342</v>
       </c>
       <c r="H22">
-        <v>13.72383506611147</v>
+        <v>8.399959681084118</v>
       </c>
       <c r="I22">
-        <v>18.26494614558955</v>
+        <v>10.37242700061927</v>
       </c>
       <c r="J22">
-        <v>9.765632215350108</v>
+        <v>7.01649598382468</v>
       </c>
       <c r="K22">
-        <v>12.54119622473598</v>
+        <v>20.26582903872738</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.39143812465204</v>
+        <v>11.46844177224026</v>
       </c>
       <c r="O22">
-        <v>20.76702854300119</v>
+        <v>14.59315626960727</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.921687097249375</v>
+        <v>9.474537051803521</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.38406543873731</v>
+        <v>9.928711081433896</v>
       </c>
       <c r="E23">
-        <v>14.42295344094992</v>
+        <v>13.77792973641445</v>
       </c>
       <c r="F23">
-        <v>28.63714468709453</v>
+        <v>23.41189095612476</v>
       </c>
       <c r="G23">
-        <v>27.46054224539624</v>
+        <v>25.02479673156288</v>
       </c>
       <c r="H23">
-        <v>13.73515168597631</v>
+        <v>8.382491737202018</v>
       </c>
       <c r="I23">
-        <v>18.30088116875877</v>
+        <v>10.48680022141879</v>
       </c>
       <c r="J23">
-        <v>9.762527988609655</v>
+        <v>6.953152929613411</v>
       </c>
       <c r="K23">
-        <v>12.38913659509639</v>
+        <v>19.92051558107379</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.40597922953008</v>
+        <v>11.50914510404274</v>
       </c>
       <c r="O23">
-        <v>20.77634561196029</v>
+        <v>14.4904846805479</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.693395647052417</v>
+        <v>8.828959480600112</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.2660314649369</v>
+        <v>9.335091824204538</v>
       </c>
       <c r="E24">
-        <v>14.27569813417036</v>
+        <v>12.96150760040078</v>
       </c>
       <c r="F24">
-        <v>28.57515055275758</v>
+        <v>22.37265616994004</v>
       </c>
       <c r="G24">
-        <v>27.35489697427466</v>
+        <v>23.71935227154495</v>
       </c>
       <c r="H24">
-        <v>13.78193842522934</v>
+        <v>8.328989705627578</v>
       </c>
       <c r="I24">
-        <v>18.44205371425387</v>
+        <v>10.9269705892829</v>
       </c>
       <c r="J24">
-        <v>9.753441518303301</v>
+        <v>6.715723340015741</v>
       </c>
       <c r="K24">
-        <v>11.79591284635015</v>
+        <v>18.55702289539012</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.4638349479366</v>
+        <v>11.66959596220213</v>
       </c>
       <c r="O24">
-        <v>20.81978125561513</v>
+        <v>14.12423814612016</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.440780468848311</v>
+        <v>8.073543935903958</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.14375307532752</v>
+        <v>8.665264110095929</v>
       </c>
       <c r="E25">
-        <v>14.12597108586449</v>
+        <v>12.04857952045783</v>
       </c>
       <c r="F25">
-        <v>28.53467098253527</v>
+        <v>21.28000928028297</v>
       </c>
       <c r="G25">
-        <v>27.27426532178796</v>
+        <v>22.3471580407946</v>
       </c>
       <c r="H25">
-        <v>13.84078473021948</v>
+        <v>8.296612519629402</v>
       </c>
       <c r="I25">
-        <v>18.60523757816467</v>
+        <v>11.41764299172922</v>
       </c>
       <c r="J25">
-        <v>9.749388117305715</v>
+        <v>6.465734509419321</v>
       </c>
       <c r="K25">
-        <v>11.1218796689802</v>
+        <v>16.96700401107729</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.53221087419121</v>
+        <v>11.85559049931334</v>
       </c>
       <c r="O25">
-        <v>20.88399258001193</v>
+        <v>13.77645482126249</v>
       </c>
     </row>
   </sheetData>
